--- a/Team-Data/2012-13/4-10-2012-13.xlsx
+++ b/Team-Data/2012-13/4-10-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" t="n">
         <v>36</v>
       </c>
       <c r="G2" t="n">
-        <v>0.544</v>
+        <v>0.538</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J2" t="n">
-        <v>80.8</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L2" t="n">
         <v>8.699999999999999</v>
@@ -705,7 +772,7 @@
         <v>19.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.713</v>
+        <v>0.71</v>
       </c>
       <c r="R2" t="n">
         <v>9.1</v>
@@ -717,10 +784,10 @@
         <v>40.6</v>
       </c>
       <c r="U2" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="V2" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W2" t="n">
         <v>8</v>
@@ -729,22 +796,22 @@
         <v>4.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z2" t="n">
         <v>18.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.90000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -759,10 +826,10 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK2" t="n">
         <v>6</v>
@@ -780,16 +847,16 @@
         <v>28</v>
       </c>
       <c r="AP2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR2" t="n">
         <v>27</v>
       </c>
       <c r="AS2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT2" t="n">
         <v>24</v>
@@ -807,7 +874,7 @@
         <v>22</v>
       </c>
       <c r="AY2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ2" t="n">
         <v>3</v>
@@ -816,7 +883,7 @@
         <v>25</v>
       </c>
       <c r="BB2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-10-2012-13</t>
+          <t>2013-04-10</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" t="n">
         <v>40</v>
       </c>
       <c r="F3" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" t="n">
-        <v>0.513</v>
+        <v>0.519</v>
       </c>
       <c r="H3" t="n">
         <v>49</v>
@@ -881,7 +948,7 @@
         <v>0.356</v>
       </c>
       <c r="O3" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P3" t="n">
         <v>21.2</v>
@@ -890,22 +957,22 @@
         <v>0.776</v>
       </c>
       <c r="R3" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="S3" t="n">
         <v>31.4</v>
       </c>
       <c r="T3" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V3" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X3" t="n">
         <v>4.6</v>
@@ -920,22 +987,22 @@
         <v>19.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="n">
         <v>16</v>
       </c>
       <c r="AF3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG3" t="n">
         <v>15</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>16</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
@@ -944,7 +1011,7 @@
         <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK3" t="n">
         <v>7</v>
@@ -956,10 +1023,10 @@
         <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP3" t="n">
         <v>19</v>
@@ -977,13 +1044,13 @@
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>14</v>
       </c>
       <c r="AW3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AX3" t="n">
         <v>21</v>
@@ -992,16 +1059,16 @@
         <v>10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB3" t="n">
         <v>19</v>
       </c>
       <c r="BC3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-10-2012-13</t>
+          <t>2013-04-10</t>
         </is>
       </c>
     </row>
@@ -1030,19 +1097,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" t="n">
         <v>32</v>
       </c>
       <c r="G4" t="n">
-        <v>0.59</v>
+        <v>0.584</v>
       </c>
       <c r="H4" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I4" t="n">
         <v>35.7</v>
@@ -1060,25 +1127,25 @@
         <v>21.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.356</v>
+        <v>0.355</v>
       </c>
       <c r="O4" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P4" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.735</v>
+        <v>0.733</v>
       </c>
       <c r="R4" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S4" t="n">
         <v>30.2</v>
       </c>
       <c r="T4" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U4" t="n">
         <v>20.3</v>
@@ -1102,13 +1169,13 @@
         <v>21.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1126,34 +1193,34 @@
         <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK4" t="n">
         <v>16</v>
       </c>
       <c r="AL4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM4" t="n">
         <v>8</v>
       </c>
       <c r="AN4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
         <v>7</v>
       </c>
       <c r="AQ4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR4" t="n">
         <v>5</v>
       </c>
       <c r="AS4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT4" t="n">
         <v>10</v>
@@ -1162,10 +1229,10 @@
         <v>28</v>
       </c>
       <c r="AV4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX4" t="n">
         <v>17</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-10-2012-13</t>
+          <t>2013-04-10</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1347,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="AW5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-10-2012-13</t>
+          <t>2013-04-10</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>0.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>12</v>
@@ -1484,7 +1551,7 @@
         <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
         <v>27</v>
@@ -1529,22 +1596,22 @@
         <v>10</v>
       </c>
       <c r="AW6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ6" t="n">
         <v>11</v>
       </c>
       <c r="BA6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC6" t="n">
         <v>14</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-10-2012-13</t>
+          <t>2013-04-10</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" t="n">
         <v>24</v>
       </c>
       <c r="F7" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" t="n">
-        <v>0.308</v>
+        <v>0.312</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
@@ -1594,19 +1661,19 @@
         <v>36.5</v>
       </c>
       <c r="J7" t="n">
-        <v>84.2</v>
+        <v>84.3</v>
       </c>
       <c r="K7" t="n">
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="L7" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M7" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N7" t="n">
-        <v>0.347</v>
+        <v>0.349</v>
       </c>
       <c r="O7" t="n">
         <v>17</v>
@@ -1621,40 +1688,40 @@
         <v>12.3</v>
       </c>
       <c r="S7" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="T7" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U7" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V7" t="n">
         <v>14.1</v>
       </c>
       <c r="W7" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA7" t="n">
         <v>19.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="AC7" t="n">
         <v>-4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
         <v>27</v>
@@ -1672,13 +1739,13 @@
         <v>19</v>
       </c>
       <c r="AJ7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK7" t="n">
         <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM7" t="n">
         <v>16</v>
@@ -1693,7 +1760,7 @@
         <v>14</v>
       </c>
       <c r="AQ7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR7" t="n">
         <v>7</v>
@@ -1705,10 +1772,10 @@
         <v>23</v>
       </c>
       <c r="AU7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW7" t="n">
         <v>16</v>
@@ -1720,16 +1787,16 @@
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB7" t="n">
         <v>17</v>
       </c>
       <c r="BC7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-10-2012-13</t>
+          <t>2013-04-10</t>
         </is>
       </c>
     </row>
@@ -1758,22 +1825,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" t="n">
         <v>38</v>
       </c>
       <c r="F8" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" t="n">
-        <v>0.487</v>
+        <v>0.494</v>
       </c>
       <c r="H8" t="n">
         <v>48.7</v>
       </c>
       <c r="I8" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J8" t="n">
         <v>84</v>
@@ -1806,13 +1873,13 @@
         <v>32.6</v>
       </c>
       <c r="T8" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U8" t="n">
         <v>23.2</v>
       </c>
       <c r="V8" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W8" t="n">
         <v>7.9</v>
@@ -1821,22 +1888,22 @@
         <v>5.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z8" t="n">
         <v>20.8</v>
       </c>
       <c r="AA8" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>-1</v>
+        <v>-0.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
@@ -1860,7 +1927,7 @@
         <v>9</v>
       </c>
       <c r="AL8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM8" t="n">
         <v>12</v>
@@ -1896,10 +1963,10 @@
         <v>17</v>
       </c>
       <c r="AX8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ8" t="n">
         <v>23</v>
@@ -1908,7 +1975,7 @@
         <v>24</v>
       </c>
       <c r="BB8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC8" t="n">
         <v>17</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-10-2012-13</t>
+          <t>2013-04-10</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" t="n">
         <v>24</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
@@ -1964,7 +2031,7 @@
         <v>0.478</v>
       </c>
       <c r="L9" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M9" t="n">
         <v>18.5</v>
@@ -1973,13 +2040,13 @@
         <v>0.343</v>
       </c>
       <c r="O9" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P9" t="n">
         <v>26.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.697</v>
+        <v>0.698</v>
       </c>
       <c r="R9" t="n">
         <v>13.3</v>
@@ -1988,7 +2055,7 @@
         <v>31.5</v>
       </c>
       <c r="T9" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="U9" t="n">
         <v>24.4</v>
@@ -2009,16 +2076,16 @@
         <v>20.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="AC9" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AE9" t="n">
         <v>4</v>
@@ -2039,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="AK9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL9" t="n">
         <v>20</v>
@@ -2063,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT9" t="n">
         <v>3</v>
@@ -2072,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW9" t="n">
         <v>2</v>
@@ -2084,13 +2151,13 @@
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA9" t="n">
         <v>4</v>
       </c>
       <c r="BB9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC9" t="n">
         <v>5</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-10-2012-13</t>
+          <t>2013-04-10</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" t="n">
         <v>52</v>
       </c>
       <c r="G10" t="n">
-        <v>0.342</v>
+        <v>0.333</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J10" t="n">
         <v>80.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L10" t="n">
         <v>6.2</v>
@@ -2152,37 +2219,37 @@
         <v>17.5</v>
       </c>
       <c r="N10" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O10" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="P10" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.696</v>
+        <v>0.697</v>
       </c>
       <c r="R10" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S10" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T10" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U10" t="n">
         <v>21.2</v>
       </c>
       <c r="V10" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="W10" t="n">
         <v>6.8</v>
       </c>
       <c r="X10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y10" t="n">
         <v>5.8</v>
@@ -2191,28 +2258,28 @@
         <v>19.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>94.40000000000001</v>
+        <v>94.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>-4.4</v>
+        <v>-4.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
         <v>23</v>
@@ -2224,25 +2291,25 @@
         <v>19</v>
       </c>
       <c r="AL10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO10" t="n">
         <v>23</v>
       </c>
       <c r="AP10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
       </c>
       <c r="AR10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS10" t="n">
         <v>20</v>
@@ -2254,28 +2321,28 @@
         <v>22</v>
       </c>
       <c r="AV10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX10" t="n">
         <v>16</v>
       </c>
       <c r="AY10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
         <v>13</v>
       </c>
       <c r="BA10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB10" t="n">
         <v>23</v>
       </c>
       <c r="BC10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-10-2012-13</t>
+          <t>2013-04-10</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>0.9</v>
       </c>
       <c r="AD11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE11" t="n">
         <v>9</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>10</v>
       </c>
       <c r="AF11" t="n">
         <v>10</v>
@@ -2409,7 +2476,7 @@
         <v>8</v>
       </c>
       <c r="AM11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
@@ -2424,7 +2491,7 @@
         <v>3</v>
       </c>
       <c r="AR11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
@@ -2436,7 +2503,7 @@
         <v>14</v>
       </c>
       <c r="AV11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW11" t="n">
         <v>26</v>
@@ -2445,13 +2512,13 @@
         <v>26</v>
       </c>
       <c r="AY11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ11" t="n">
         <v>28</v>
       </c>
       <c r="BA11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB11" t="n">
         <v>9</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-10-2012-13</t>
+          <t>2013-04-10</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>11</v>
@@ -2612,7 +2679,7 @@
         <v>8</v>
       </c>
       <c r="AT12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU12" t="n">
         <v>5</v>
@@ -2621,13 +2688,13 @@
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX12" t="n">
         <v>27</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>16</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-10-2012-13</t>
+          <t>2013-04-10</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>4.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
         <v>8</v>
@@ -2758,13 +2825,13 @@
         <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
@@ -2800,7 +2867,7 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW13" t="n">
         <v>23</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-10-2012-13</t>
+          <t>2013-04-10</t>
         </is>
       </c>
     </row>
@@ -2850,28 +2917,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" t="n">
         <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>0.667</v>
+        <v>0.662</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J14" t="n">
         <v>80.59999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.479</v>
+        <v>0.477</v>
       </c>
       <c r="L14" t="n">
         <v>7.6</v>
@@ -2880,13 +2947,13 @@
         <v>21.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.359</v>
+        <v>0.357</v>
       </c>
       <c r="O14" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P14" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q14" t="n">
         <v>0.712</v>
@@ -2895,40 +2962,40 @@
         <v>11.4</v>
       </c>
       <c r="S14" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T14" t="n">
         <v>41.4</v>
       </c>
       <c r="U14" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V14" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W14" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="X14" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y14" t="n">
         <v>4.2</v>
       </c>
       <c r="Z14" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="AA14" t="n">
         <v>21</v>
       </c>
-      <c r="AA14" t="n">
-        <v>20.9</v>
-      </c>
       <c r="AB14" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2943,22 +3010,22 @@
         <v>26</v>
       </c>
       <c r="AI14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ14" t="n">
         <v>25</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM14" t="n">
         <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
         <v>16</v>
@@ -2967,7 +3034,7 @@
         <v>9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR14" t="n">
         <v>15</v>
@@ -2982,7 +3049,7 @@
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -2991,16 +3058,16 @@
         <v>7</v>
       </c>
       <c r="AY14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA14" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB14" t="n">
         <v>8</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>7</v>
       </c>
       <c r="BC14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-10-2012-13</t>
+          <t>2013-04-10</t>
         </is>
       </c>
     </row>
@@ -3032,46 +3099,46 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" t="n">
         <v>37</v>
       </c>
       <c r="G15" t="n">
-        <v>0.532</v>
+        <v>0.526</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>81</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.46</v>
+        <v>0.458</v>
       </c>
       <c r="L15" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O15" t="n">
         <v>19</v>
       </c>
       <c r="P15" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="R15" t="n">
         <v>11.5</v>
@@ -3080,7 +3147,7 @@
         <v>33.1</v>
       </c>
       <c r="T15" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="U15" t="n">
         <v>22.2</v>
@@ -3095,7 +3162,7 @@
         <v>5.2</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z15" t="n">
         <v>18</v>
@@ -3104,16 +3171,16 @@
         <v>22.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF15" t="n">
         <v>14</v>
@@ -3125,7 +3192,7 @@
         <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ15" t="n">
         <v>21</v>
@@ -3152,10 +3219,10 @@
         <v>30</v>
       </c>
       <c r="AR15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT15" t="n">
         <v>4</v>
@@ -3164,16 +3231,16 @@
         <v>17</v>
       </c>
       <c r="AV15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW15" t="n">
         <v>25</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
         <v>2</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-10-2012-13</t>
+          <t>2013-04-10</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3359,10 @@
         <v>4.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF16" t="n">
         <v>5</v>
@@ -3325,13 +3392,13 @@
         <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR16" t="n">
         <v>4</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-10-2012-13</t>
+          <t>2013-04-10</t>
         </is>
       </c>
     </row>
@@ -3396,37 +3463,37 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>0.795</v>
+        <v>0.792</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
       </c>
       <c r="I17" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J17" t="n">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="K17" t="n">
-        <v>0.494</v>
+        <v>0.495</v>
       </c>
       <c r="L17" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="M17" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.394</v>
+        <v>0.393</v>
       </c>
       <c r="O17" t="n">
         <v>17.3</v>
@@ -3435,22 +3502,22 @@
         <v>22.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.762</v>
+        <v>0.761</v>
       </c>
       <c r="R17" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="S17" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T17" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="U17" t="n">
         <v>22.9</v>
       </c>
       <c r="V17" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="W17" t="n">
         <v>8.800000000000001</v>
@@ -3459,7 +3526,7 @@
         <v>5.2</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Z17" t="n">
         <v>18.7</v>
@@ -3471,10 +3538,10 @@
         <v>102.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -3489,7 +3556,7 @@
         <v>4</v>
       </c>
       <c r="AI17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3510,7 +3577,7 @@
         <v>12</v>
       </c>
       <c r="AP17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ17" t="n">
         <v>14</v>
@@ -3519,13 +3586,13 @@
         <v>28</v>
       </c>
       <c r="AS17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
         <v>4</v>
@@ -3534,7 +3601,7 @@
         <v>3</v>
       </c>
       <c r="AX17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-10-2012-13</t>
+          <t>2013-04-10</t>
         </is>
       </c>
     </row>
@@ -3578,64 +3645,64 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" t="n">
         <v>37</v>
       </c>
       <c r="F18" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" t="n">
-        <v>0.474</v>
+        <v>0.481</v>
       </c>
       <c r="H18" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I18" t="n">
         <v>38.2</v>
       </c>
       <c r="J18" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L18" t="n">
         <v>7.1</v>
       </c>
       <c r="M18" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
       <c r="O18" t="n">
         <v>15.4</v>
       </c>
       <c r="P18" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.738</v>
+        <v>0.74</v>
       </c>
       <c r="R18" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="S18" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T18" t="n">
-        <v>43.9</v>
+        <v>43.7</v>
       </c>
       <c r="U18" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V18" t="n">
         <v>14.1</v>
       </c>
       <c r="W18" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X18" t="n">
         <v>6.8</v>
@@ -3650,13 +3717,13 @@
         <v>19.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
         <v>18</v>
@@ -3668,10 +3735,10 @@
         <v>18</v>
       </c>
       <c r="AH18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
@@ -3686,7 +3753,7 @@
         <v>14</v>
       </c>
       <c r="AN18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO18" t="n">
         <v>25</v>
@@ -3707,19 +3774,19 @@
         <v>5</v>
       </c>
       <c r="AU18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV18" t="n">
         <v>9</v>
       </c>
       <c r="AW18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX18" t="n">
         <v>2</v>
       </c>
       <c r="AY18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ18" t="n">
         <v>9</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-10-2012-13</t>
+          <t>2013-04-10</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19" t="n">
         <v>29</v>
       </c>
       <c r="F19" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" t="n">
-        <v>0.372</v>
+        <v>0.377</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
@@ -3778,10 +3845,10 @@
         <v>35.8</v>
       </c>
       <c r="J19" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L19" t="n">
         <v>5.4</v>
@@ -3790,16 +3857,16 @@
         <v>17.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.303</v>
+        <v>0.304</v>
       </c>
       <c r="O19" t="n">
         <v>18.6</v>
       </c>
       <c r="P19" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.738</v>
+        <v>0.736</v>
       </c>
       <c r="R19" t="n">
         <v>12.1</v>
@@ -3829,22 +3896,22 @@
         <v>18.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AB19" t="n">
         <v>95.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.5</v>
+        <v>-2.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AE19" t="n">
         <v>22</v>
       </c>
       <c r="AF19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG19" t="n">
         <v>22</v>
@@ -3856,7 +3923,7 @@
         <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3880,10 +3947,10 @@
         <v>22</v>
       </c>
       <c r="AR19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT19" t="n">
         <v>13</v>
@@ -3895,16 +3962,16 @@
         <v>20</v>
       </c>
       <c r="AW19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX19" t="n">
         <v>18</v>
       </c>
       <c r="AY19" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA19" t="n">
         <v>2</v>
@@ -3913,7 +3980,7 @@
         <v>20</v>
       </c>
       <c r="BC19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-10-2012-13</t>
+          <t>2013-04-10</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" t="n">
         <v>27</v>
       </c>
       <c r="F20" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G20" t="n">
-        <v>0.342</v>
+        <v>0.346</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J20" t="n">
         <v>80.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L20" t="n">
         <v>6.5</v>
@@ -3975,10 +4042,10 @@
         <v>0.363</v>
       </c>
       <c r="O20" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="P20" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="Q20" t="n">
         <v>0.781</v>
@@ -4008,22 +4075,22 @@
         <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>94.2</v>
+        <v>94</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.6</v>
+        <v>-3.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF20" t="n">
         <v>25</v>
@@ -4035,7 +4102,7 @@
         <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
@@ -4050,13 +4117,13 @@
         <v>21</v>
       </c>
       <c r="AN20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO20" t="n">
         <v>26</v>
       </c>
       <c r="AP20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ20" t="n">
         <v>6</v>
@@ -4068,7 +4135,7 @@
         <v>26</v>
       </c>
       <c r="AT20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU20" t="n">
         <v>23</v>
@@ -4080,16 +4147,16 @@
         <v>30</v>
       </c>
       <c r="AX20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ20" t="n">
         <v>19</v>
       </c>
       <c r="BA20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-10-2012-13</t>
+          <t>2013-04-10</t>
         </is>
       </c>
     </row>
@@ -4202,16 +4269,16 @@
         <v>4.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF21" t="n">
         <v>6</v>
       </c>
       <c r="AG21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH21" t="n">
         <v>30</v>
@@ -4241,10 +4308,10 @@
         <v>16</v>
       </c>
       <c r="AQ21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS21" t="n">
         <v>24</v>
@@ -4259,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4274,7 +4341,7 @@
         <v>19</v>
       </c>
       <c r="BB21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC21" t="n">
         <v>7</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-10-2012-13</t>
+          <t>2013-04-10</t>
         </is>
       </c>
     </row>
@@ -4384,19 +4451,19 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
       </c>
       <c r="AF22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
         <v>8</v>
@@ -4441,7 +4508,7 @@
         <v>28</v>
       </c>
       <c r="AW22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
@@ -4453,10 +4520,10 @@
         <v>18</v>
       </c>
       <c r="BA22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-10-2012-13</t>
+          <t>2013-04-10</t>
         </is>
       </c>
     </row>
@@ -4488,28 +4555,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" t="n">
         <v>59</v>
       </c>
       <c r="G23" t="n">
-        <v>0.253</v>
+        <v>0.244</v>
       </c>
       <c r="H23" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.8</v>
+        <v>37.6</v>
       </c>
       <c r="J23" t="n">
-        <v>84.40000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L23" t="n">
         <v>6.3</v>
@@ -4518,28 +4585,28 @@
         <v>19</v>
       </c>
       <c r="N23" t="n">
-        <v>0.332</v>
+        <v>0.33</v>
       </c>
       <c r="O23" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="P23" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.764</v>
+        <v>0.766</v>
       </c>
       <c r="R23" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S23" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="T23" t="n">
-        <v>42.8</v>
+        <v>42.6</v>
       </c>
       <c r="U23" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V23" t="n">
         <v>14.4</v>
@@ -4551,7 +4618,7 @@
         <v>4.4</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z23" t="n">
         <v>19.5</v>
@@ -4560,13 +4627,13 @@
         <v>16.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.3</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.5</v>
+        <v>-6.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4578,16 +4645,16 @@
         <v>29</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
         <v>10</v>
       </c>
       <c r="AJ23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
         <v>21</v>
@@ -4608,7 +4675,7 @@
         <v>12</v>
       </c>
       <c r="AR23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS23" t="n">
         <v>9</v>
@@ -4617,7 +4684,7 @@
         <v>11</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV23" t="n">
         <v>11</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-10-2012-13</t>
+          <t>2013-04-10</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" t="n">
         <v>31</v>
       </c>
       <c r="F24" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
-        <v>0.397</v>
+        <v>0.403</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4688,7 +4755,7 @@
         <v>37.2</v>
       </c>
       <c r="J24" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K24" t="n">
         <v>0.443</v>
@@ -4697,19 +4764,19 @@
         <v>6.3</v>
       </c>
       <c r="M24" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="N24" t="n">
-        <v>0.361</v>
+        <v>0.362</v>
       </c>
       <c r="O24" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="P24" t="n">
         <v>16.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.727</v>
+        <v>0.723</v>
       </c>
       <c r="R24" t="n">
         <v>10.9</v>
@@ -4730,10 +4797,10 @@
         <v>7.3</v>
       </c>
       <c r="X24" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z24" t="n">
         <v>18.5</v>
@@ -4742,13 +4809,13 @@
         <v>16.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.9</v>
+        <v>-3.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
@@ -4760,7 +4827,7 @@
         <v>20</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>16</v>
@@ -4778,7 +4845,7 @@
         <v>25</v>
       </c>
       <c r="AN24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-10-2012-13</t>
+          <t>2013-04-10</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" t="n">
         <v>55</v>
       </c>
       <c r="G25" t="n">
-        <v>0.304</v>
+        <v>0.295</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
@@ -4876,13 +4943,13 @@
         <v>0.442</v>
       </c>
       <c r="L25" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M25" t="n">
-        <v>17.6</v>
+        <v>17.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.329</v>
+        <v>0.327</v>
       </c>
       <c r="O25" t="n">
         <v>14.7</v>
@@ -4891,7 +4958,7 @@
         <v>19.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.744</v>
+        <v>0.742</v>
       </c>
       <c r="R25" t="n">
         <v>11.7</v>
@@ -4900,40 +4967,40 @@
         <v>29.9</v>
       </c>
       <c r="T25" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U25" t="n">
         <v>22.4</v>
       </c>
       <c r="V25" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W25" t="n">
         <v>8</v>
       </c>
       <c r="X25" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y25" t="n">
         <v>5</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA25" t="n">
         <v>18.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>94.90000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>-6.4</v>
+        <v>-6.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF25" t="n">
         <v>28</v>
@@ -4942,10 +5009,10 @@
         <v>28</v>
       </c>
       <c r="AH25" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AI25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ25" t="n">
         <v>5</v>
@@ -4957,7 +5024,7 @@
         <v>26</v>
       </c>
       <c r="AM25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN25" t="n">
         <v>29</v>
@@ -4972,10 +5039,10 @@
         <v>20</v>
       </c>
       <c r="AR25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT25" t="n">
         <v>17</v>
@@ -4990,7 +5057,7 @@
         <v>15</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY25" t="n">
         <v>17</v>
@@ -4999,7 +5066,7 @@
         <v>22</v>
       </c>
       <c r="BA25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB25" t="n">
         <v>21</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-10-2012-13</t>
+          <t>2013-04-10</t>
         </is>
       </c>
     </row>
@@ -5034,19 +5101,19 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" t="n">
         <v>33</v>
       </c>
       <c r="F26" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G26" t="n">
-        <v>0.423</v>
+        <v>0.429</v>
       </c>
       <c r="H26" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I26" t="n">
         <v>36.8</v>
@@ -5064,7 +5131,7 @@
         <v>23.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.353</v>
+        <v>0.351</v>
       </c>
       <c r="O26" t="n">
         <v>16</v>
@@ -5073,46 +5140,46 @@
         <v>20.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.777</v>
+        <v>0.776</v>
       </c>
       <c r="R26" t="n">
         <v>10.8</v>
       </c>
       <c r="S26" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="T26" t="n">
-        <v>41</v>
+        <v>41.2</v>
       </c>
       <c r="U26" t="n">
         <v>21.8</v>
       </c>
       <c r="V26" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W26" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X26" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z26" t="n">
         <v>18.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.7</v>
+        <v>-2.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5136,7 +5203,7 @@
         <v>14</v>
       </c>
       <c r="AL26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM26" t="n">
         <v>4</v>
@@ -5151,10 +5218,10 @@
         <v>24</v>
       </c>
       <c r="AQ26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS26" t="n">
         <v>16</v>
@@ -5166,7 +5233,7 @@
         <v>18</v>
       </c>
       <c r="AV26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW26" t="n">
         <v>28</v>
@@ -5175,7 +5242,7 @@
         <v>24</v>
       </c>
       <c r="AY26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ26" t="n">
         <v>7</v>
@@ -5184,7 +5251,7 @@
         <v>26</v>
       </c>
       <c r="BB26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC26" t="n">
         <v>22</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-10-2012-13</t>
+          <t>2013-04-10</t>
         </is>
       </c>
     </row>
@@ -5216,37 +5283,37 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27" t="n">
         <v>50</v>
       </c>
       <c r="G27" t="n">
-        <v>0.359</v>
+        <v>0.351</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J27" t="n">
         <v>83.8</v>
       </c>
       <c r="K27" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L27" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M27" t="n">
         <v>20.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.363</v>
+        <v>0.361</v>
       </c>
       <c r="O27" t="n">
         <v>17.7</v>
@@ -5261,13 +5328,13 @@
         <v>11.5</v>
       </c>
       <c r="S27" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="T27" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="U27" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V27" t="n">
         <v>14.7</v>
@@ -5276,31 +5343,31 @@
         <v>8.1</v>
       </c>
       <c r="X27" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y27" t="n">
         <v>6.2</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA27" t="n">
         <v>20.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4.6</v>
+        <v>-4.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
         <v>24</v>
@@ -5309,13 +5376,13 @@
         <v>12</v>
       </c>
       <c r="AI27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ27" t="n">
         <v>8</v>
       </c>
       <c r="AK27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL27" t="n">
         <v>11</v>
@@ -5324,7 +5391,7 @@
         <v>11</v>
       </c>
       <c r="AN27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO27" t="n">
         <v>7</v>
@@ -5336,37 +5403,37 @@
         <v>11</v>
       </c>
       <c r="AR27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS27" t="n">
         <v>28</v>
       </c>
       <c r="AT27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU27" t="n">
         <v>25</v>
       </c>
       <c r="AV27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AW27" t="n">
         <v>13</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY27" t="n">
         <v>27</v>
       </c>
       <c r="AZ27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA27" t="n">
         <v>12</v>
       </c>
       <c r="BB27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC27" t="n">
         <v>27</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-10-2012-13</t>
+          <t>2013-04-10</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E28" t="n">
         <v>57</v>
       </c>
       <c r="F28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G28" t="n">
-        <v>0.731</v>
+        <v>0.74</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
@@ -5416,10 +5483,10 @@
         <v>39.2</v>
       </c>
       <c r="J28" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.483</v>
+        <v>0.484</v>
       </c>
       <c r="L28" t="n">
         <v>8.199999999999999</v>
@@ -5428,19 +5495,19 @@
         <v>21.6</v>
       </c>
       <c r="N28" t="n">
-        <v>0.377</v>
+        <v>0.379</v>
       </c>
       <c r="O28" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P28" t="n">
         <v>21.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.79</v>
+        <v>0.791</v>
       </c>
       <c r="R28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="S28" t="n">
         <v>33.1</v>
@@ -5467,16 +5534,16 @@
         <v>17.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.2</v>
+        <v>103.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5500,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM28" t="n">
         <v>7</v>
@@ -5512,7 +5579,7 @@
         <v>15</v>
       </c>
       <c r="AP28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ28" t="n">
         <v>4</v>
@@ -5521,10 +5588,10 @@
         <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
@@ -5539,13 +5606,13 @@
         <v>10</v>
       </c>
       <c r="AY28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-10-2012-13</t>
+          <t>2013-04-10</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
@@ -5676,7 +5743,7 @@
         <v>21</v>
       </c>
       <c r="AJ29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK29" t="n">
         <v>21</v>
@@ -5721,7 +5788,7 @@
         <v>19</v>
       </c>
       <c r="AY29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-10-2012-13</t>
+          <t>2013-04-10</t>
         </is>
       </c>
     </row>
@@ -5843,13 +5910,13 @@
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH30" t="n">
         <v>7</v>
@@ -5864,16 +5931,16 @@
         <v>12</v>
       </c>
       <c r="AL30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM30" t="n">
         <v>27</v>
       </c>
       <c r="AN30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP30" t="n">
         <v>10</v>
@@ -5885,7 +5952,7 @@
         <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT30" t="n">
         <v>15</v>
@@ -5915,7 +5982,7 @@
         <v>13</v>
       </c>
       <c r="BC30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-10-2012-13</t>
+          <t>2013-04-10</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E31" t="n">
         <v>29</v>
       </c>
       <c r="F31" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G31" t="n">
-        <v>0.367</v>
+        <v>0.372</v>
       </c>
       <c r="H31" t="n">
         <v>48.4</v>
@@ -5974,7 +6041,7 @@
         <v>18.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.366</v>
+        <v>0.365</v>
       </c>
       <c r="O31" t="n">
         <v>15.7</v>
@@ -5983,16 +6050,16 @@
         <v>21.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.733</v>
+        <v>0.734</v>
       </c>
       <c r="R31" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S31" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T31" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U31" t="n">
         <v>21.7</v>
@@ -6001,7 +6068,7 @@
         <v>15.1</v>
       </c>
       <c r="W31" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X31" t="n">
         <v>4.5</v>
@@ -6022,7 +6089,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE31" t="n">
         <v>22</v>
@@ -6046,22 +6113,22 @@
         <v>28</v>
       </c>
       <c r="AL31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM31" t="n">
         <v>20</v>
       </c>
       <c r="AN31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP31" t="n">
         <v>18</v>
       </c>
       <c r="AQ31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR31" t="n">
         <v>20</v>
@@ -6070,25 +6137,25 @@
         <v>7</v>
       </c>
       <c r="AT31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU31" t="n">
         <v>19</v>
       </c>
       <c r="AV31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW31" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AX31" t="n">
         <v>23</v>
       </c>
       <c r="AY31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA31" t="n">
         <v>23</v>
@@ -6097,7 +6164,7 @@
         <v>27</v>
       </c>
       <c r="BC31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-10-2012-13</t>
+          <t>2013-04-10</t>
         </is>
       </c>
     </row>
